--- a/src/main/resources/ExcelFiles/cases.xlsx
+++ b/src/main/resources/ExcelFiles/cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helena.liu/gitProjects/ApiAutoTest/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helena.liu/gitProjects/ApiAutoTest/src/main/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -497,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -537,6 +537,14 @@
       <color rgb="FF098658"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -555,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -563,6 +571,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -573,8 +589,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="16">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -582,6 +602,10 @@
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -888,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
